--- a/Enose/背景颜色.xlsx
+++ b/Enose/背景颜色.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\Python\PyCharm_study\E_Nose\Enose\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A22E316-77C2-4F8C-BFEB-E3D0F583E19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B57AA03-2725-438F-A36D-23923602DB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>左侧和顶部</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,15 +63,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>左侧第一个图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下侧的版本号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>左侧按下效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgb(33,91,93)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgb(161,219,220)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -435,10 +439,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -453,13 +460,8 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Enose/背景颜色.xlsx
+++ b/Enose/背景颜色.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\Python\PyCharm_study\E_Nose\Enose\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B57AA03-2725-438F-A36D-23923602DB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89AA4ED-D0DE-415D-B92A-2B2456683EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,7 +404,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/Enose/背景颜色.xlsx
+++ b/Enose/背景颜色.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\Python\PyCharm_study\E_Nose\Enose\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89AA4ED-D0DE-415D-B92A-2B2456683EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD26839-7BC1-4715-B50A-214EFFA96CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Enose/背景颜色.xlsx
+++ b/Enose/背景颜色.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\Python\PyCharm_study\E_Nose\Enose\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD26839-7BC1-4715-B50A-214EFFA96CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B619EED-565E-41C3-B726-2D44435FD388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,7 +404,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="K16" activeCellId="1" sqref="B2 K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
